--- a/src/Services/Catalog/Catalog.API/ExcelImport.xlsx
+++ b/src/Services/Catalog/Catalog.API/ExcelImport.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AsfandYar\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Microservices Training\Paractice Microservice Project\Aspnet Microservices\src\Services\Catalog\Catalog.API\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{01F40394-DD1B-453C-9027-FB0D381669E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CE32B3B-5C8F-46BE-B20C-4749332AAAF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C6A35892-85F5-4CD8-86F0-BCBE1E12F9BD}"/>
   </bookViews>
@@ -448,7 +448,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -592,9 +592,6 @@
       <c r="D8" t="s">
         <v>6</v>
       </c>
-      <c r="E8">
-        <v>3033033036</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/Services/Catalog/Catalog.API/ExcelImport.xlsx
+++ b/src/Services/Catalog/Catalog.API/ExcelImport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Microservices Training\Paractice Microservice Project\Aspnet Microservices\src\Services\Catalog\Catalog.API\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CE32B3B-5C8F-46BE-B20C-4749332AAAF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27A4662A-FB98-4F78-95C8-A81617D927F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C6A35892-85F5-4CD8-86F0-BCBE1E12F9BD}"/>
   </bookViews>
@@ -448,7 +448,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -592,6 +592,9 @@
       <c r="D8" t="s">
         <v>6</v>
       </c>
+      <c r="E8">
+        <v>3033033036</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/Services/Catalog/Catalog.API/ExcelImport.xlsx
+++ b/src/Services/Catalog/Catalog.API/ExcelImport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Microservices Training\Paractice Microservice Project\Aspnet Microservices\src\Services\Catalog\Catalog.API\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27A4662A-FB98-4F78-95C8-A81617D927F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{154393B6-7BD0-4955-8B03-FDDB15C17122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C6A35892-85F5-4CD8-86F0-BCBE1E12F9BD}"/>
   </bookViews>
@@ -592,9 +592,6 @@
       <c r="D8" t="s">
         <v>6</v>
       </c>
-      <c r="E8">
-        <v>3033033036</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
